--- a/biology/Botanique/Taille_Gobelet/Taille_Gobelet.xlsx
+++ b/biology/Botanique/Taille_Gobelet/Taille_Gobelet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gobelet est un type de taille courte utilisée dans certains vignobles. 
 Il est formé de 2 à 5 bras en général. Sur chacun des bras peuvent se trouver, un à deux coursons. Ces coursons peuvent avoir de 1 à 3 bourgeons (yeux). La quantité totale de bourgeons laissés dépend de la vigueur (bras x coursons par bras x bourgeons par coursons = total de bourgeons).
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Découlant d'une formation d'étalement naturelle de la vigne, cette taille remonterait à l'époque romaine[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Découlant d'une formation d'étalement naturelle de la vigne, cette taille remonterait à l'époque romaine,.
 </t>
         </is>
       </c>
@@ -545,10 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cépages
-Le grenache, le mourvèdre, la syrah, le gamay ou le chenin sont souvent taillés en gobelet.
-Géographie
-Elle est utilisée dans le monde entier, notamment dans la vallée du Rhône, en Languedoc-Roussillon et en Beaujolais.
+          <t>Cépages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le grenache, le mourvèdre, la syrah, le gamay ou le chenin sont souvent taillés en gobelet.
 </t>
         </is>
       </c>
@@ -574,12 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Formation</t>
+          <t>Utilisation</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La première année (n) le plant est taillé à un courson à 2 yeux. Suivant la vigueur, l'année (n+1) le plant est taillé à nouveau avec un courson à deux yeux (faible vigueur) ou deux coursons à 2 yeux (forte vigueur). Ces deux coursons seront le départ des bras pour la formation du gobelet, ils sont choisis s'ils permettent un écartement suffisant de la structure.
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est utilisée dans le monde entier, notamment dans la vallée du Rhône, en Languedoc-Roussillon et en Beaujolais.
 </t>
         </is>
       </c>
@@ -605,10 +628,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première année (n) le plant est taillé à un courson à 2 yeux. Suivant la vigueur, l'année (n+1) le plant est taillé à nouveau avec un courson à deux yeux (faible vigueur) ou deux coursons à 2 yeux (forte vigueur). Ces deux coursons seront le départ des bras pour la formation du gobelet, ils sont choisis s'ils permettent un écartement suffisant de la structure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Taille_Gobelet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Taille_Gobelet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Conduite</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur chaque bras, on conserve le nombre de coursons nécessaires (1, parfois 2) en fonction de la vigueur du cep. Sur chaque courson, le nombre de bourgeons conservés (1 à 3) dépend de la vigueur du cep et de la grosseur des sarments de l'année (n-1) et (n-2). Pour une grosseur et vigueur globale normale, on conserve le même nombre de bourgeons.
 			Gobelet avant taille
